--- a/data/trans_dic/P23_1_R_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R_2016_2023-Provincia-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2734121045622358</v>
+        <v>0.2727405823967518</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1564514450359575</v>
+        <v>0.1619935496007781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1808332355359036</v>
+        <v>0.1812244074903385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1534990750894068</v>
+        <v>0.1594292418470244</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2406270812332824</v>
+        <v>0.2369741157502642</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1687370971890238</v>
+        <v>0.1687144077382632</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3873018605529491</v>
+        <v>0.3860554733251974</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2561286598284722</v>
+        <v>0.2548026424060905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2835099297241575</v>
+        <v>0.2810787745186595</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2295414646353542</v>
+        <v>0.2293193132173646</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3195750945807511</v>
+        <v>0.3191715902297555</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2294727250855837</v>
+        <v>0.2233383603056057</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3435168153853983</v>
+        <v>0.3420492915656836</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1829821905339795</v>
+        <v>0.1787513695175864</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.219470506826383</v>
+        <v>0.2213453654572135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1370429635435402</v>
+        <v>0.1380805070687555</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2942851535422945</v>
+        <v>0.2940127197912059</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1686718091926542</v>
+        <v>0.1708382645082135</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4294291226762898</v>
+        <v>0.4308652516808513</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2737273941337297</v>
+        <v>0.2728360493595552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2987802108563105</v>
+        <v>0.2951383005607919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.191875490513538</v>
+        <v>0.1969770191105628</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3562327530794092</v>
+        <v>0.3520620787151568</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2240993460349307</v>
+        <v>0.2249834266846414</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2342290152260165</v>
+        <v>0.2337993355645512</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.193806491125899</v>
+        <v>0.1955967757442982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1804469682756465</v>
+        <v>0.1795194360348715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1376657119140179</v>
+        <v>0.1378598675211231</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2194727449067849</v>
+        <v>0.2179032872621234</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1732092460685507</v>
+        <v>0.173103991030001</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3292915897662745</v>
+        <v>0.3297518800901626</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2820783913195437</v>
+        <v>0.2895775208021115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2644688865826146</v>
+        <v>0.2719137509629061</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2056775929324878</v>
+        <v>0.20626952560039</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2820069123093442</v>
+        <v>0.2834347361663931</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2287840068703043</v>
+        <v>0.2299483229485217</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.2476290981335944</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1722102952922374</v>
+        <v>0.1722102952922375</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2994301402364294</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3021818177876277</v>
+        <v>0.3038255914368451</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1844085656784785</v>
+        <v>0.1821829351940494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2035848014283718</v>
+        <v>0.2053764635622705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1375966675825363</v>
+        <v>0.135442184257859</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2670904190859436</v>
+        <v>0.2615959595666956</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1714560688569839</v>
+        <v>0.1723004535859268</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4051914032411266</v>
+        <v>0.408985881788058</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3139628556724959</v>
+        <v>0.3075163145485329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2927644870298787</v>
+        <v>0.2950735757981188</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2155167851646049</v>
+        <v>0.2156296445028092</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3311076674916069</v>
+        <v>0.3316396172157747</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.241878659130722</v>
+        <v>0.2406441994706354</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3135787132479846</v>
+        <v>0.3101439252826356</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1495080234391649</v>
+        <v>0.1469370813782658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09263501827330141</v>
+        <v>0.09487806210399384</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2733652938066553</v>
+        <v>0.2718472669696262</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1306744857969014</v>
+        <v>0.1284882348458867</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4538986861196889</v>
+        <v>0.4494772981279086</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2423310179946394</v>
+        <v>0.2435193061282944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1539519651996401</v>
+        <v>0.1603663966692824</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3648663205498276</v>
+        <v>0.3645271940575743</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1865182921756796</v>
+        <v>0.1866938780621688</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.2381028922971559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1705460677890443</v>
+        <v>0.1705460677890442</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2785131109698465</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2639155092806088</v>
+        <v>0.2667394824002399</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2054584027553681</v>
+        <v>0.2121226120458622</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1930209916873011</v>
+        <v>0.1914957717620999</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.136720274717004</v>
+        <v>0.1344390275167593</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2435457950422693</v>
+        <v>0.2419311447384426</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1859439378629091</v>
+        <v>0.1835528997498971</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3822768101211552</v>
+        <v>0.3794770113517948</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3046764832271575</v>
+        <v>0.3072427249397349</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2953977624105537</v>
+        <v>0.2917489688616332</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.211090763215365</v>
+        <v>0.2098709580378277</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3174347802389604</v>
+        <v>0.3182847470012505</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2448069289079702</v>
+        <v>0.2450554723105034</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.2759654987457693</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2166364815079285</v>
+        <v>0.2166364815079284</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2172563256039463</v>
@@ -1116,7 +1116,7 @@
         <v>0.2458719796617659</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.2053495850951066</v>
+        <v>0.2053495850951065</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2417811196831259</v>
+        <v>0.236283862022689</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1820100938008965</v>
+        <v>0.1839867333929166</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1831378004157501</v>
+        <v>0.1856944819323434</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1672166681730214</v>
+        <v>0.1681485045025319</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2197957392284115</v>
+        <v>0.2208316838567917</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1837729595482412</v>
+        <v>0.1827898189227894</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3143426858358935</v>
+        <v>0.3131358463617273</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2536378182313271</v>
+        <v>0.2552455131069367</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2485278082316943</v>
+        <v>0.2487977822477772</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2226984010069905</v>
+        <v>0.2236708832050649</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.268270091173673</v>
+        <v>0.273415279952031</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2274345277017604</v>
+        <v>0.2264735203990055</v>
       </c>
     </row>
     <row r="25">
@@ -1186,7 +1186,7 @@
         <v>0.3009122642763729</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.2616620362715545</v>
+        <v>0.2616620362715544</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.2476869389331577</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2700948734342442</v>
+        <v>0.2666472364566511</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2258802357052647</v>
+        <v>0.2277608826409798</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2185164296894827</v>
+        <v>0.2204129228530847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1291222348878482</v>
+        <v>0.129580540122344</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2501728788214276</v>
+        <v>0.2511377359283793</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.182806110017409</v>
+        <v>0.1828160209842499</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3349204816519537</v>
+        <v>0.3334987460455714</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2921369052727447</v>
+        <v>0.2947686223324253</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2791863836596647</v>
+        <v>0.2783910009526215</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1752432116606898</v>
+        <v>0.1752021576287712</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2971343100593209</v>
+        <v>0.2967627988843924</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2265258367534285</v>
+        <v>0.2240884083521603</v>
       </c>
     </row>
     <row r="28">
@@ -1268,7 +1268,7 @@
         <v>0.3214207709242772</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.2394886124978119</v>
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>80318</v>
+        <v>80121</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>49884</v>
+        <v>51651</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52207</v>
+        <v>52320</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>48515</v>
+        <v>50389</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>140157</v>
+        <v>138029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>107132</v>
+        <v>107118</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>113774</v>
+        <v>113408</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>81665</v>
+        <v>81243</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>81850</v>
+        <v>81148</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>72549</v>
+        <v>72479</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>186141</v>
+        <v>185906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>145694</v>
+        <v>141799</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>172346</v>
+        <v>171610</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>97099</v>
+        <v>94854</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>114319</v>
+        <v>115296</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>74893</v>
+        <v>75460</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>300935</v>
+        <v>300657</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>181683</v>
+        <v>184017</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>215449</v>
+        <v>216170</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>145253</v>
+        <v>144780</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>155630</v>
+        <v>153733</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>104859</v>
+        <v>107647</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>364283</v>
+        <v>360018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>241387</v>
+        <v>242339</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>74617</v>
+        <v>74480</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>61241</v>
+        <v>61807</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>60686</v>
+        <v>60374</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>49061</v>
+        <v>49131</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>143727</v>
+        <v>142699</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>116462</v>
+        <v>116391</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>104901</v>
+        <v>105047</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>89135</v>
+        <v>91504</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>88943</v>
+        <v>91447</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>73300</v>
+        <v>73511</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>184679</v>
+        <v>185614</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>153829</v>
+        <v>154612</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>111796</v>
+        <v>112405</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68811</v>
+        <v>67981</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>78583</v>
+        <v>79275</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>58060</v>
+        <v>57151</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>201910</v>
+        <v>197757</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>136326</v>
+        <v>136997</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>149906</v>
+        <v>151310</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>117154</v>
+        <v>114748</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>113007</v>
+        <v>113898</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90940</v>
+        <v>90987</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>250305</v>
+        <v>250707</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>192319</v>
+        <v>191338</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>66234</v>
+        <v>65509</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>30749</v>
+        <v>30220</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21048</v>
+        <v>21558</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>117495</v>
+        <v>116842</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>56566</v>
+        <v>55620</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>95873</v>
+        <v>94939</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>49839</v>
+        <v>50083</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>34980</v>
+        <v>36438</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>156822</v>
+        <v>156677</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>80740</v>
+        <v>80816</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>69442</v>
+        <v>70185</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>55619</v>
+        <v>57423</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>52717</v>
+        <v>52300</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>36060</v>
+        <v>35458</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>130599</v>
+        <v>129733</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>99379</v>
+        <v>98101</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>100586</v>
+        <v>99849</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>82478</v>
+        <v>83173</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>80678</v>
+        <v>79681</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>55675</v>
+        <v>55353</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>170221</v>
+        <v>170676</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>130839</v>
+        <v>130972</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>158484</v>
+        <v>154881</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>130579</v>
+        <v>131997</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>126244</v>
+        <v>128006</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>128453</v>
+        <v>129169</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>295587</v>
+        <v>296980</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>273015</v>
+        <v>271555</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>206047</v>
+        <v>205256</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>181967</v>
+        <v>183120</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>171320</v>
+        <v>171506</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>171074</v>
+        <v>171821</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>360776</v>
+        <v>367696</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>337879</v>
+        <v>336452</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>210291</v>
+        <v>207607</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>180011</v>
+        <v>181509</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>180531</v>
+        <v>182098</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>107343</v>
+        <v>107724</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>401465</v>
+        <v>403013</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>297656</v>
+        <v>297672</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>260763</v>
+        <v>259656</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>232813</v>
+        <v>234910</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>230655</v>
+        <v>229997</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>145685</v>
+        <v>145651</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>476826</v>
+        <v>476230</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>368843</v>
+        <v>364875</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
     </row>
     <row r="40">
